--- a/EMG_new_muscle_3.xlsx
+++ b/EMG_new_muscle_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tshot\Documents\Prosthetic Limbs Research\smart_pros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9009306E-622A-4B7D-8CE9-B6905DFCA583}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2134B46-8280-4440-A49E-7C47F1BF3F17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{2FF10972-84F4-4B5A-8589-2B7B9FE58F6F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="305">
   <si>
     <t>Time stamp</t>
   </si>
@@ -937,6 +937,15 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Categories</t>
   </si>
 </sst>
 </file>
@@ -1288,15 +1297,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F889D6-D40B-4760-B273-2A0EC9D84F55}">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1315,11 @@
       <c r="C1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1315,11 +1327,14 @@
         <v>0.01</v>
       </c>
       <c r="C2" t="str">
-        <f>RIGHT(A2,4)</f>
+        <f t="shared" ref="C2:C65" si="0">RIGHT(A2,4)</f>
         <v>3010</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1327,11 +1342,14 @@
         <v>0.01</v>
       </c>
       <c r="C3" t="str">
-        <f>RIGHT(A3,4)</f>
+        <f t="shared" si="0"/>
         <v>3020</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1339,11 +1357,14 @@
         <v>0.01</v>
       </c>
       <c r="C4" t="str">
-        <f>RIGHT(A4,4)</f>
+        <f t="shared" si="0"/>
         <v>3032</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1351,11 +1372,14 @@
         <v>0.01</v>
       </c>
       <c r="C5" t="str">
-        <f>RIGHT(A5,4)</f>
+        <f t="shared" si="0"/>
         <v>3042</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1363,11 +1387,14 @@
         <v>0.01</v>
       </c>
       <c r="C6" t="str">
-        <f>RIGHT(A6,4)</f>
+        <f t="shared" si="0"/>
         <v>3052</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1375,11 +1402,14 @@
         <v>0</v>
       </c>
       <c r="C7" t="str">
-        <f>RIGHT(A7,4)</f>
+        <f t="shared" si="0"/>
         <v>3063</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1387,11 +1417,14 @@
         <v>0</v>
       </c>
       <c r="C8" t="str">
-        <f>RIGHT(A8,4)</f>
+        <f t="shared" si="0"/>
         <v>3074</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1399,11 +1432,14 @@
         <v>0</v>
       </c>
       <c r="C9" t="str">
-        <f>RIGHT(A9,4)</f>
+        <f t="shared" si="0"/>
         <v>3084</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1411,11 +1447,14 @@
         <v>0</v>
       </c>
       <c r="C10" t="str">
-        <f>RIGHT(A10,4)</f>
+        <f t="shared" si="0"/>
         <v>3095</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1423,11 +1462,14 @@
         <v>0</v>
       </c>
       <c r="C11" t="str">
-        <f>RIGHT(A11,4)</f>
+        <f t="shared" si="0"/>
         <v>3105</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1435,11 +1477,14 @@
         <v>0</v>
       </c>
       <c r="C12" t="str">
-        <f>RIGHT(A12,4)</f>
+        <f t="shared" si="0"/>
         <v>3117</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1447,11 +1492,14 @@
         <v>0</v>
       </c>
       <c r="C13" t="str">
-        <f>RIGHT(A13,4)</f>
+        <f t="shared" si="0"/>
         <v>3127</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1459,11 +1507,14 @@
         <v>0</v>
       </c>
       <c r="C14" t="str">
-        <f>RIGHT(A14,4)</f>
+        <f t="shared" si="0"/>
         <v>3137</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1471,11 +1522,14 @@
         <v>0</v>
       </c>
       <c r="C15" t="str">
-        <f>RIGHT(A15,4)</f>
+        <f t="shared" si="0"/>
         <v>3148</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1483,11 +1537,14 @@
         <v>0</v>
       </c>
       <c r="C16" t="str">
-        <f>RIGHT(A16,4)</f>
+        <f t="shared" si="0"/>
         <v>3159</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1495,11 +1552,14 @@
         <v>0</v>
       </c>
       <c r="C17" t="str">
-        <f>RIGHT(A17,4)</f>
+        <f t="shared" si="0"/>
         <v>3169</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1507,11 +1567,14 @@
         <v>0.08</v>
       </c>
       <c r="C18" t="str">
-        <f>RIGHT(A18,4)</f>
+        <f t="shared" si="0"/>
         <v>3180</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1519,11 +1582,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C19" t="str">
-        <f>RIGHT(A19,4)</f>
+        <f t="shared" si="0"/>
         <v>3190</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1531,11 +1597,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C20" t="str">
-        <f>RIGHT(A20,4)</f>
+        <f t="shared" si="0"/>
         <v>3201</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1543,11 +1612,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C21" t="str">
-        <f>RIGHT(A21,4)</f>
+        <f t="shared" si="0"/>
         <v>3212</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1555,11 +1627,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C22" t="str">
-        <f>RIGHT(A22,4)</f>
+        <f t="shared" si="0"/>
         <v>3222</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1567,11 +1642,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C23" t="str">
-        <f>RIGHT(A23,4)</f>
+        <f t="shared" si="0"/>
         <v>3232</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1579,11 +1657,14 @@
         <v>0.06</v>
       </c>
       <c r="C24" t="str">
-        <f>RIGHT(A24,4)</f>
+        <f t="shared" si="0"/>
         <v>3244</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1591,11 +1672,14 @@
         <v>0.06</v>
       </c>
       <c r="C25" t="str">
-        <f>RIGHT(A25,4)</f>
+        <f t="shared" si="0"/>
         <v>3254</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1603,11 +1687,14 @@
         <v>0.86</v>
       </c>
       <c r="C26" t="str">
-        <f>RIGHT(A26,4)</f>
+        <f t="shared" si="0"/>
         <v>3265</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1615,11 +1702,14 @@
         <v>0.82</v>
       </c>
       <c r="C27" t="str">
-        <f>RIGHT(A27,4)</f>
+        <f t="shared" si="0"/>
         <v>3275</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1627,11 +1717,14 @@
         <v>0.79</v>
       </c>
       <c r="C28" t="str">
-        <f>RIGHT(A28,4)</f>
+        <f t="shared" si="0"/>
         <v>3286</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1639,11 +1732,14 @@
         <v>0.77</v>
       </c>
       <c r="C29" t="str">
-        <f>RIGHT(A29,4)</f>
+        <f t="shared" si="0"/>
         <v>3297</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1651,11 +1747,14 @@
         <v>0.74</v>
       </c>
       <c r="C30" t="str">
-        <f>RIGHT(A30,4)</f>
+        <f t="shared" si="0"/>
         <v>3307</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1663,11 +1762,14 @@
         <v>0.71</v>
       </c>
       <c r="C31" t="str">
-        <f>RIGHT(A31,4)</f>
+        <f t="shared" si="0"/>
         <v>3317</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1675,11 +1777,14 @@
         <v>0.69</v>
       </c>
       <c r="C32" t="str">
-        <f>RIGHT(A32,4)</f>
+        <f t="shared" si="0"/>
         <v>3329</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1687,11 +1792,14 @@
         <v>0.72</v>
       </c>
       <c r="C33" t="str">
-        <f>RIGHT(A33,4)</f>
+        <f t="shared" si="0"/>
         <v>3339</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1699,11 +1807,14 @@
         <v>0.69</v>
       </c>
       <c r="C34" t="str">
-        <f>RIGHT(A34,4)</f>
+        <f t="shared" si="0"/>
         <v>3349</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1711,11 +1822,14 @@
         <v>1.38</v>
       </c>
       <c r="C35" t="str">
-        <f>RIGHT(A35,4)</f>
+        <f t="shared" si="0"/>
         <v>3360</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1723,11 +1837,14 @@
         <v>1.32</v>
       </c>
       <c r="C36" t="str">
-        <f>RIGHT(A36,4)</f>
+        <f t="shared" si="0"/>
         <v>3371</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1735,11 +1852,14 @@
         <v>1.28</v>
       </c>
       <c r="C37" t="str">
-        <f>RIGHT(A37,4)</f>
+        <f t="shared" si="0"/>
         <v>3382</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1747,11 +1867,14 @@
         <v>1.23</v>
       </c>
       <c r="C38" t="str">
-        <f>RIGHT(A38,4)</f>
+        <f t="shared" si="0"/>
         <v>3392</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1759,11 +1882,14 @@
         <v>1.44</v>
       </c>
       <c r="C39" t="str">
-        <f>RIGHT(A39,4)</f>
+        <f t="shared" si="0"/>
         <v>3402</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1771,11 +1897,14 @@
         <v>1.38</v>
       </c>
       <c r="C40" t="str">
-        <f>RIGHT(A40,4)</f>
+        <f t="shared" si="0"/>
         <v>3414</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1783,11 +1912,14 @@
         <v>1.94</v>
       </c>
       <c r="C41" t="str">
-        <f>RIGHT(A41,4)</f>
+        <f t="shared" si="0"/>
         <v>3424</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1795,11 +1927,14 @@
         <v>1.83</v>
       </c>
       <c r="C42" t="str">
-        <f>RIGHT(A42,4)</f>
+        <f t="shared" si="0"/>
         <v>3434</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1807,11 +1942,14 @@
         <v>1.75</v>
       </c>
       <c r="C43" t="str">
-        <f>RIGHT(A43,4)</f>
+        <f t="shared" si="0"/>
         <v>3445</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1819,11 +1957,14 @@
         <v>1.68</v>
       </c>
       <c r="C44" t="str">
-        <f>RIGHT(A44,4)</f>
+        <f t="shared" si="0"/>
         <v>3456</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1831,11 +1972,14 @@
         <v>1.61</v>
       </c>
       <c r="C45" t="str">
-        <f>RIGHT(A45,4)</f>
+        <f t="shared" si="0"/>
         <v>3467</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1843,11 +1987,14 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C46" t="str">
-        <f>RIGHT(A46,4)</f>
+        <f t="shared" si="0"/>
         <v>3477</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1855,11 +2002,14 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C47" t="str">
-        <f>RIGHT(A47,4)</f>
+        <f t="shared" si="0"/>
         <v>3487</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1867,11 +2017,14 @@
         <v>1.97</v>
       </c>
       <c r="C48" t="str">
-        <f>RIGHT(A48,4)</f>
+        <f t="shared" si="0"/>
         <v>3499</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1879,11 +2032,14 @@
         <v>2.16</v>
       </c>
       <c r="C49" t="str">
-        <f>RIGHT(A49,4)</f>
+        <f t="shared" si="0"/>
         <v>3509</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1891,11 +2047,14 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C50" t="str">
-        <f>RIGHT(A50,4)</f>
+        <f t="shared" si="0"/>
         <v>3519</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1903,11 +2062,14 @@
         <v>1.96</v>
       </c>
       <c r="C51" t="str">
-        <f>RIGHT(A51,4)</f>
+        <f t="shared" si="0"/>
         <v>3530</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D51" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1915,11 +2077,14 @@
         <v>1.88</v>
       </c>
       <c r="C52" t="str">
-        <f>RIGHT(A52,4)</f>
+        <f t="shared" si="0"/>
         <v>3540</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1927,11 +2092,14 @@
         <v>1.79</v>
       </c>
       <c r="C53" t="str">
-        <f>RIGHT(A53,4)</f>
+        <f t="shared" si="0"/>
         <v>3552</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1939,11 +2107,14 @@
         <v>1.73</v>
       </c>
       <c r="C54" t="str">
-        <f>RIGHT(A54,4)</f>
+        <f t="shared" si="0"/>
         <v>3562</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D54" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1951,11 +2122,14 @@
         <v>1.66</v>
       </c>
       <c r="C55" t="str">
-        <f>RIGHT(A55,4)</f>
+        <f t="shared" si="0"/>
         <v>3572</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1963,11 +2137,14 @@
         <v>1.59</v>
       </c>
       <c r="C56" t="str">
-        <f>RIGHT(A56,4)</f>
+        <f t="shared" si="0"/>
         <v>3584</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1975,11 +2152,14 @@
         <v>1.54</v>
       </c>
       <c r="C57" t="str">
-        <f>RIGHT(A57,4)</f>
+        <f t="shared" si="0"/>
         <v>3594</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1987,11 +2167,14 @@
         <v>1.49</v>
       </c>
       <c r="C58" t="str">
-        <f>RIGHT(A58,4)</f>
+        <f t="shared" si="0"/>
         <v>3604</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1999,11 +2182,14 @@
         <v>1.43</v>
       </c>
       <c r="C59" t="str">
-        <f>RIGHT(A59,4)</f>
+        <f t="shared" si="0"/>
         <v>3615</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2011,11 +2197,14 @@
         <v>1.38</v>
       </c>
       <c r="C60" t="str">
-        <f>RIGHT(A60,4)</f>
+        <f t="shared" si="0"/>
         <v>3625</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2023,11 +2212,14 @@
         <v>1.33</v>
       </c>
       <c r="C61" t="str">
-        <f>RIGHT(A61,4)</f>
+        <f t="shared" si="0"/>
         <v>3637</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2035,11 +2227,14 @@
         <v>1.29</v>
       </c>
       <c r="C62" t="str">
-        <f>RIGHT(A62,4)</f>
+        <f t="shared" si="0"/>
         <v>3647</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D62" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2047,11 +2242,14 @@
         <v>1.25</v>
       </c>
       <c r="C63" t="str">
-        <f>RIGHT(A63,4)</f>
+        <f t="shared" si="0"/>
         <v>3657</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2059,11 +2257,14 @@
         <v>1.99</v>
       </c>
       <c r="C64" t="str">
-        <f>RIGHT(A64,4)</f>
+        <f t="shared" si="0"/>
         <v>3668</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D64" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2071,11 +2272,14 @@
         <v>1.9</v>
       </c>
       <c r="C65" t="str">
-        <f>RIGHT(A65,4)</f>
+        <f t="shared" si="0"/>
         <v>3679</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D65" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2083,11 +2287,14 @@
         <v>1.81</v>
       </c>
       <c r="C66" t="str">
-        <f>RIGHT(A66,4)</f>
+        <f t="shared" ref="C66:C129" si="1">RIGHT(A66,4)</f>
         <v>3689</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D66" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2095,11 +2302,14 @@
         <v>1.74</v>
       </c>
       <c r="C67" t="str">
-        <f>RIGHT(A67,4)</f>
+        <f t="shared" si="1"/>
         <v>3700</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2107,11 +2317,14 @@
         <v>1.96</v>
       </c>
       <c r="C68" t="str">
-        <f>RIGHT(A68,4)</f>
+        <f t="shared" si="1"/>
         <v>3710</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2119,11 +2332,14 @@
         <v>1.87</v>
       </c>
       <c r="C69" t="str">
-        <f>RIGHT(A69,4)</f>
+        <f t="shared" si="1"/>
         <v>3722</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D69" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2131,11 +2347,14 @@
         <v>1.79</v>
       </c>
       <c r="C70" t="str">
-        <f>RIGHT(A70,4)</f>
+        <f t="shared" si="1"/>
         <v>3732</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D70" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2143,11 +2362,14 @@
         <v>1.72</v>
       </c>
       <c r="C71" t="str">
-        <f>RIGHT(A71,4)</f>
+        <f t="shared" si="1"/>
         <v>3742</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D71" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2155,11 +2377,14 @@
         <v>1.65</v>
       </c>
       <c r="C72" t="str">
-        <f>RIGHT(A72,4)</f>
+        <f t="shared" si="1"/>
         <v>3753</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D72" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2167,11 +2392,14 @@
         <v>1.74</v>
       </c>
       <c r="C73" t="str">
-        <f>RIGHT(A73,4)</f>
+        <f t="shared" si="1"/>
         <v>3764</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2179,11 +2407,14 @@
         <v>2.19</v>
       </c>
       <c r="C74" t="str">
-        <f>RIGHT(A74,4)</f>
+        <f t="shared" si="1"/>
         <v>3774</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D74" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2191,11 +2422,14 @@
         <v>2.08</v>
       </c>
       <c r="C75" t="str">
-        <f>RIGHT(A75,4)</f>
+        <f t="shared" si="1"/>
         <v>3785</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2203,11 +2437,14 @@
         <v>1.98</v>
       </c>
       <c r="C76" t="str">
-        <f>RIGHT(A76,4)</f>
+        <f t="shared" si="1"/>
         <v>3795</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2215,11 +2452,14 @@
         <v>1.89</v>
       </c>
       <c r="C77" t="str">
-        <f>RIGHT(A77,4)</f>
+        <f t="shared" si="1"/>
         <v>3807</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2227,11 +2467,14 @@
         <v>2.17</v>
       </c>
       <c r="C78" t="str">
-        <f>RIGHT(A78,4)</f>
+        <f t="shared" si="1"/>
         <v>3817</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2239,11 +2482,14 @@
         <v>2.06</v>
       </c>
       <c r="C79" t="str">
-        <f>RIGHT(A79,4)</f>
+        <f t="shared" si="1"/>
         <v>3827</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D79" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2251,11 +2497,14 @@
         <v>2.35</v>
       </c>
       <c r="C80" t="str">
-        <f>RIGHT(A80,4)</f>
+        <f t="shared" si="1"/>
         <v>3838</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D80" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2263,11 +2512,14 @@
         <v>3.2</v>
       </c>
       <c r="C81" t="str">
-        <f>RIGHT(A81,4)</f>
+        <f t="shared" si="1"/>
         <v>3849</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D81" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2275,11 +2527,14 @@
         <v>2.99</v>
       </c>
       <c r="C82" t="str">
-        <f>RIGHT(A82,4)</f>
+        <f t="shared" si="1"/>
         <v>3859</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D82" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2287,11 +2542,14 @@
         <v>2.81</v>
       </c>
       <c r="C83" t="str">
-        <f>RIGHT(A83,4)</f>
+        <f t="shared" si="1"/>
         <v>3870</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D83" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2299,11 +2557,14 @@
         <v>2.65</v>
       </c>
       <c r="C84" t="str">
-        <f>RIGHT(A84,4)</f>
+        <f t="shared" si="1"/>
         <v>3880</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D84" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2311,11 +2572,14 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="C85" t="str">
-        <f>RIGHT(A85,4)</f>
+        <f t="shared" si="1"/>
         <v>3892</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D85" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2323,11 +2587,14 @@
         <v>2.39</v>
       </c>
       <c r="C86" t="str">
-        <f>RIGHT(A86,4)</f>
+        <f t="shared" si="1"/>
         <v>3902</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D86" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2335,11 +2602,14 @@
         <v>2.27</v>
       </c>
       <c r="C87" t="str">
-        <f>RIGHT(A87,4)</f>
+        <f t="shared" si="1"/>
         <v>3912</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D87" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2347,11 +2617,14 @@
         <v>2.17</v>
       </c>
       <c r="C88" t="str">
-        <f>RIGHT(A88,4)</f>
+        <f t="shared" si="1"/>
         <v>3923</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D88" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2359,11 +2632,14 @@
         <v>2.06</v>
       </c>
       <c r="C89" t="str">
-        <f>RIGHT(A89,4)</f>
+        <f t="shared" si="1"/>
         <v>3934</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D89" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2371,11 +2647,14 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C90" t="str">
-        <f>RIGHT(A90,4)</f>
+        <f t="shared" si="1"/>
         <v>3944</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D90" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2383,11 +2662,14 @@
         <v>2.13</v>
       </c>
       <c r="C91" t="str">
-        <f>RIGHT(A91,4)</f>
+        <f t="shared" si="1"/>
         <v>3955</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D91" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2395,11 +2677,14 @@
         <v>2.02</v>
       </c>
       <c r="C92" t="str">
-        <f>RIGHT(A92,4)</f>
+        <f t="shared" si="1"/>
         <v>3965</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D92" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2407,11 +2692,14 @@
         <v>1.94</v>
       </c>
       <c r="C93" t="str">
-        <f>RIGHT(A93,4)</f>
+        <f t="shared" si="1"/>
         <v>3976</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D93" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2419,11 +2707,14 @@
         <v>2.56</v>
       </c>
       <c r="C94" t="str">
-        <f>RIGHT(A94,4)</f>
+        <f t="shared" si="1"/>
         <v>3987</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D94" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2431,11 +2722,14 @@
         <v>2.42</v>
       </c>
       <c r="C95" t="str">
-        <f>RIGHT(A95,4)</f>
+        <f t="shared" si="1"/>
         <v>3997</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2443,11 +2737,14 @@
         <v>2.29</v>
       </c>
       <c r="C96" t="str">
-        <f>RIGHT(A96,4)</f>
+        <f t="shared" si="1"/>
         <v>4008</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D96" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2455,11 +2752,14 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C97" t="str">
-        <f>RIGHT(A97,4)</f>
+        <f t="shared" si="1"/>
         <v>4019</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D97" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2467,11 +2767,14 @@
         <v>2.16</v>
       </c>
       <c r="C98" t="str">
-        <f>RIGHT(A98,4)</f>
+        <f t="shared" si="1"/>
         <v>4029</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D98" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2479,11 +2782,14 @@
         <v>2.85</v>
       </c>
       <c r="C99" t="str">
-        <f>RIGHT(A99,4)</f>
+        <f t="shared" si="1"/>
         <v>4040</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D99" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2491,11 +2797,14 @@
         <v>2.68</v>
       </c>
       <c r="C100" t="str">
-        <f>RIGHT(A100,4)</f>
+        <f t="shared" si="1"/>
         <v>4050</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D100" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2503,11 +2812,14 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C101" t="str">
-        <f>RIGHT(A101,4)</f>
+        <f t="shared" si="1"/>
         <v>4061</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D101" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2515,11 +2827,14 @@
         <v>2.4</v>
       </c>
       <c r="C102" t="str">
-        <f>RIGHT(A102,4)</f>
+        <f t="shared" si="1"/>
         <v>4072</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D102" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2527,11 +2842,14 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C103" t="str">
-        <f>RIGHT(A103,4)</f>
+        <f t="shared" si="1"/>
         <v>4082</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D103" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2539,11 +2857,14 @@
         <v>2.17</v>
       </c>
       <c r="C104" t="str">
-        <f>RIGHT(A104,4)</f>
+        <f t="shared" si="1"/>
         <v>4093</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D104" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2551,11 +2872,14 @@
         <v>3.06</v>
       </c>
       <c r="C105" t="str">
-        <f>RIGHT(A105,4)</f>
+        <f t="shared" si="1"/>
         <v>4104</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2563,11 +2887,14 @@
         <v>3.27</v>
       </c>
       <c r="C106" t="str">
-        <f>RIGHT(A106,4)</f>
+        <f t="shared" si="1"/>
         <v>4114</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D106" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2575,11 +2902,14 @@
         <v>3.49</v>
       </c>
       <c r="C107" t="str">
-        <f>RIGHT(A107,4)</f>
+        <f t="shared" si="1"/>
         <v>4125</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2587,11 +2917,14 @@
         <v>3.26</v>
       </c>
       <c r="C108" t="str">
-        <f>RIGHT(A108,4)</f>
+        <f t="shared" si="1"/>
         <v>4135</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2599,11 +2932,14 @@
         <v>3.04</v>
       </c>
       <c r="C109" t="str">
-        <f>RIGHT(A109,4)</f>
+        <f t="shared" si="1"/>
         <v>4146</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D109" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2611,11 +2947,14 @@
         <v>2.86</v>
       </c>
       <c r="C110" t="str">
-        <f>RIGHT(A110,4)</f>
+        <f t="shared" si="1"/>
         <v>4157</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D110" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2623,11 +2962,14 @@
         <v>2.69</v>
       </c>
       <c r="C111" t="str">
-        <f>RIGHT(A111,4)</f>
+        <f t="shared" si="1"/>
         <v>4167</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D111" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2635,11 +2977,14 @@
         <v>2.57</v>
       </c>
       <c r="C112" t="str">
-        <f>RIGHT(A112,4)</f>
+        <f t="shared" si="1"/>
         <v>4178</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D112" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2647,11 +2992,14 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C113" t="str">
-        <f>RIGHT(A113,4)</f>
+        <f t="shared" si="1"/>
         <v>4189</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D113" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2659,11 +3007,14 @@
         <v>2.31</v>
       </c>
       <c r="C114" t="str">
-        <f>RIGHT(A114,4)</f>
+        <f t="shared" si="1"/>
         <v>4199</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D114" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2671,11 +3022,14 @@
         <v>3.08</v>
       </c>
       <c r="C115" t="str">
-        <f>RIGHT(A115,4)</f>
+        <f t="shared" si="1"/>
         <v>4210</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D115" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2683,11 +3037,14 @@
         <v>2.88</v>
       </c>
       <c r="C116" t="str">
-        <f>RIGHT(A116,4)</f>
+        <f t="shared" si="1"/>
         <v>4220</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D116" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2695,11 +3052,14 @@
         <v>2.72</v>
       </c>
       <c r="C117" t="str">
-        <f>RIGHT(A117,4)</f>
+        <f t="shared" si="1"/>
         <v>4231</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D117" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2707,11 +3067,14 @@
         <v>2.57</v>
       </c>
       <c r="C118" t="str">
-        <f>RIGHT(A118,4)</f>
+        <f t="shared" si="1"/>
         <v>4242</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D118" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2719,11 +3082,14 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C119" t="str">
-        <f>RIGHT(A119,4)</f>
+        <f t="shared" si="1"/>
         <v>4252</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D119" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2731,11 +3097,14 @@
         <v>2.31</v>
       </c>
       <c r="C120" t="str">
-        <f>RIGHT(A120,4)</f>
+        <f t="shared" si="1"/>
         <v>4263</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D120" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2743,11 +3112,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C121" t="str">
-        <f>RIGHT(A121,4)</f>
+        <f t="shared" si="1"/>
         <v>4274</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D121" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2755,11 +3127,14 @@
         <v>2.12</v>
       </c>
       <c r="C122" t="str">
-        <f>RIGHT(A122,4)</f>
+        <f t="shared" si="1"/>
         <v>4284</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D122" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2767,11 +3142,14 @@
         <v>2.02</v>
       </c>
       <c r="C123" t="str">
-        <f>RIGHT(A123,4)</f>
+        <f t="shared" si="1"/>
         <v>4295</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D123" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2779,11 +3157,14 @@
         <v>1.94</v>
       </c>
       <c r="C124" t="str">
-        <f>RIGHT(A124,4)</f>
+        <f t="shared" si="1"/>
         <v>4305</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D124" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2791,11 +3172,14 @@
         <v>1.86</v>
       </c>
       <c r="C125" t="str">
-        <f>RIGHT(A125,4)</f>
+        <f t="shared" si="1"/>
         <v>4316</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D125" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2803,11 +3187,14 @@
         <v>2.17</v>
       </c>
       <c r="C126" t="str">
-        <f>RIGHT(A126,4)</f>
+        <f t="shared" si="1"/>
         <v>4327</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D126" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2815,11 +3202,14 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C127" t="str">
-        <f>RIGHT(A127,4)</f>
+        <f t="shared" si="1"/>
         <v>4337</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D127" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2827,11 +3217,14 @@
         <v>1.97</v>
       </c>
       <c r="C128" t="str">
-        <f>RIGHT(A128,4)</f>
+        <f t="shared" si="1"/>
         <v>4348</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D128" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2839,11 +3232,14 @@
         <v>1.89</v>
       </c>
       <c r="C129" t="str">
-        <f>RIGHT(A129,4)</f>
+        <f t="shared" si="1"/>
         <v>4359</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D129" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2851,11 +3247,14 @@
         <v>1.81</v>
       </c>
       <c r="C130" t="str">
-        <f>RIGHT(A130,4)</f>
+        <f t="shared" ref="C130:C193" si="2">RIGHT(A130,4)</f>
         <v>4369</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D130" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2863,11 +3262,14 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="C131" t="str">
-        <f>RIGHT(A131,4)</f>
+        <f t="shared" si="2"/>
         <v>4380</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D131" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2875,11 +3277,14 @@
         <v>2.84</v>
       </c>
       <c r="C132" t="str">
-        <f>RIGHT(A132,4)</f>
+        <f t="shared" si="2"/>
         <v>4390</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D132" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2887,11 +3292,14 @@
         <v>2.67</v>
       </c>
       <c r="C133" t="str">
-        <f>RIGHT(A133,4)</f>
+        <f t="shared" si="2"/>
         <v>4401</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D133" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2899,11 +3307,14 @@
         <v>2.52</v>
       </c>
       <c r="C134" t="str">
-        <f>RIGHT(A134,4)</f>
+        <f t="shared" si="2"/>
         <v>4412</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D134" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2911,11 +3322,14 @@
         <v>2.39</v>
       </c>
       <c r="C135" t="str">
-        <f>RIGHT(A135,4)</f>
+        <f t="shared" si="2"/>
         <v>4422</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D135" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2923,11 +3337,14 @@
         <v>2.27</v>
       </c>
       <c r="C136" t="str">
-        <f>RIGHT(A136,4)</f>
+        <f t="shared" si="2"/>
         <v>4433</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D136" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2935,11 +3352,14 @@
         <v>2.17</v>
       </c>
       <c r="C137" t="str">
-        <f>RIGHT(A137,4)</f>
+        <f t="shared" si="2"/>
         <v>4444</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D137" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2947,11 +3367,14 @@
         <v>2.41</v>
       </c>
       <c r="C138" t="str">
-        <f>RIGHT(A138,4)</f>
+        <f t="shared" si="2"/>
         <v>4454</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D138" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2959,11 +3382,14 @@
         <v>3.21</v>
       </c>
       <c r="C139" t="str">
-        <f>RIGHT(A139,4)</f>
+        <f t="shared" si="2"/>
         <v>4465</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D139" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2971,11 +3397,14 @@
         <v>3.01</v>
       </c>
       <c r="C140" t="str">
-        <f>RIGHT(A140,4)</f>
+        <f t="shared" si="2"/>
         <v>4475</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D140" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2983,11 +3412,14 @@
         <v>2.83</v>
       </c>
       <c r="C141" t="str">
-        <f>RIGHT(A141,4)</f>
+        <f t="shared" si="2"/>
         <v>4486</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D141" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2995,11 +3427,14 @@
         <v>2.66</v>
       </c>
       <c r="C142" t="str">
-        <f>RIGHT(A142,4)</f>
+        <f t="shared" si="2"/>
         <v>4497</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D142" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3007,11 +3442,14 @@
         <v>2.52</v>
       </c>
       <c r="C143" t="str">
-        <f>RIGHT(A143,4)</f>
+        <f t="shared" si="2"/>
         <v>4507</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D143" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3019,11 +3457,14 @@
         <v>2.39</v>
       </c>
       <c r="C144" t="str">
-        <f>RIGHT(A144,4)</f>
+        <f t="shared" si="2"/>
         <v>4518</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D144" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3031,11 +3472,14 @@
         <v>2.27</v>
       </c>
       <c r="C145" t="str">
-        <f>RIGHT(A145,4)</f>
+        <f t="shared" si="2"/>
         <v>4529</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D145" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3043,11 +3487,14 @@
         <v>2.17</v>
       </c>
       <c r="C146" t="str">
-        <f>RIGHT(A146,4)</f>
+        <f t="shared" si="2"/>
         <v>4539</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D146" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3055,11 +3502,14 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C147" t="str">
-        <f>RIGHT(A147,4)</f>
+        <f t="shared" si="2"/>
         <v>4550</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D147" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3067,11 +3517,14 @@
         <v>1.98</v>
       </c>
       <c r="C148" t="str">
-        <f>RIGHT(A148,4)</f>
+        <f t="shared" si="2"/>
         <v>4560</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D148" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3079,11 +3532,14 @@
         <v>1.9</v>
       </c>
       <c r="C149" t="str">
-        <f>RIGHT(A149,4)</f>
+        <f t="shared" si="2"/>
         <v>4571</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D149" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3091,11 +3547,14 @@
         <v>1.82</v>
       </c>
       <c r="C150" t="str">
-        <f>RIGHT(A150,4)</f>
+        <f t="shared" si="2"/>
         <v>4582</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D150" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3103,11 +3562,14 @@
         <v>1.74</v>
       </c>
       <c r="C151" t="str">
-        <f>RIGHT(A151,4)</f>
+        <f t="shared" si="2"/>
         <v>4592</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D151" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3115,11 +3577,14 @@
         <v>1.68</v>
       </c>
       <c r="C152" t="str">
-        <f>RIGHT(A152,4)</f>
+        <f t="shared" si="2"/>
         <v>4603</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3127,11 +3592,14 @@
         <v>1.61</v>
       </c>
       <c r="C153" t="str">
-        <f>RIGHT(A153,4)</f>
+        <f t="shared" si="2"/>
         <v>4614</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D153" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3139,11 +3607,14 @@
         <v>1.55</v>
       </c>
       <c r="C154" t="str">
-        <f>RIGHT(A154,4)</f>
+        <f t="shared" si="2"/>
         <v>4624</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D154" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3151,11 +3622,14 @@
         <v>1.5</v>
       </c>
       <c r="C155" t="str">
-        <f>RIGHT(A155,4)</f>
+        <f t="shared" si="2"/>
         <v>4635</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D155" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3163,11 +3637,14 @@
         <v>1.45</v>
       </c>
       <c r="C156" t="str">
-        <f>RIGHT(A156,4)</f>
+        <f t="shared" si="2"/>
         <v>4645</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D156" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3175,11 +3652,14 @@
         <v>1.4</v>
       </c>
       <c r="C157" t="str">
-        <f>RIGHT(A157,4)</f>
+        <f t="shared" si="2"/>
         <v>4656</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D157" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3187,11 +3667,14 @@
         <v>1.35</v>
       </c>
       <c r="C158" t="str">
-        <f>RIGHT(A158,4)</f>
+        <f t="shared" si="2"/>
         <v>4667</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D158" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3199,11 +3682,14 @@
         <v>1.3</v>
       </c>
       <c r="C159" t="str">
-        <f>RIGHT(A159,4)</f>
+        <f t="shared" si="2"/>
         <v>4677</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D159" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3211,11 +3697,14 @@
         <v>1.26</v>
       </c>
       <c r="C160" t="str">
-        <f>RIGHT(A160,4)</f>
+        <f t="shared" si="2"/>
         <v>4688</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D160" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3223,11 +3712,14 @@
         <v>1.22</v>
       </c>
       <c r="C161" t="str">
-        <f>RIGHT(A161,4)</f>
+        <f t="shared" si="2"/>
         <v>4699</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D161" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3235,11 +3727,14 @@
         <v>1.18</v>
       </c>
       <c r="C162" t="str">
-        <f>RIGHT(A162,4)</f>
+        <f t="shared" si="2"/>
         <v>4709</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D162" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3247,11 +3742,14 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="C163" t="str">
-        <f>RIGHT(A163,4)</f>
+        <f t="shared" si="2"/>
         <v>4720</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D163" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3259,11 +3757,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C164" t="str">
-        <f>RIGHT(A164,4)</f>
+        <f t="shared" si="2"/>
         <v>4730</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D164" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3271,11 +3772,14 @@
         <v>1.08</v>
       </c>
       <c r="C165" t="str">
-        <f>RIGHT(A165,4)</f>
+        <f t="shared" si="2"/>
         <v>4741</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D165" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3283,11 +3787,14 @@
         <v>1.04</v>
       </c>
       <c r="C166" t="str">
-        <f>RIGHT(A166,4)</f>
+        <f t="shared" si="2"/>
         <v>4752</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D166" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3295,11 +3802,14 @@
         <v>1.01</v>
       </c>
       <c r="C167" t="str">
-        <f>RIGHT(A167,4)</f>
+        <f t="shared" si="2"/>
         <v>4762</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D167" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3307,11 +3817,14 @@
         <v>0.98</v>
       </c>
       <c r="C168" t="str">
-        <f>RIGHT(A168,4)</f>
+        <f t="shared" si="2"/>
         <v>4772</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D168" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3319,11 +3832,14 @@
         <v>0.95</v>
       </c>
       <c r="C169" t="str">
-        <f>RIGHT(A169,4)</f>
+        <f t="shared" si="2"/>
         <v>4784</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D169" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3331,11 +3847,14 @@
         <v>0.92</v>
       </c>
       <c r="C170" t="str">
-        <f>RIGHT(A170,4)</f>
+        <f t="shared" si="2"/>
         <v>4794</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D170" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3343,11 +3862,14 @@
         <v>0.9</v>
       </c>
       <c r="C171" t="str">
-        <f>RIGHT(A171,4)</f>
+        <f t="shared" si="2"/>
         <v>4805</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D171" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3355,11 +3877,14 @@
         <v>0.87</v>
       </c>
       <c r="C172" t="str">
-        <f>RIGHT(A172,4)</f>
+        <f t="shared" si="2"/>
         <v>4815</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D172" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3367,11 +3892,14 @@
         <v>0.85</v>
       </c>
       <c r="C173" t="str">
-        <f>RIGHT(A173,4)</f>
+        <f t="shared" si="2"/>
         <v>4826</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D173" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3379,11 +3907,14 @@
         <v>0.83</v>
       </c>
       <c r="C174" t="str">
-        <f>RIGHT(A174,4)</f>
+        <f t="shared" si="2"/>
         <v>4837</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D174" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3391,11 +3922,14 @@
         <v>0.8</v>
       </c>
       <c r="C175" t="str">
-        <f>RIGHT(A175,4)</f>
+        <f t="shared" si="2"/>
         <v>4847</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D175" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3403,11 +3937,14 @@
         <v>0.78</v>
       </c>
       <c r="C176" t="str">
-        <f>RIGHT(A176,4)</f>
+        <f t="shared" si="2"/>
         <v>4857</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D176" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3415,11 +3952,14 @@
         <v>0.76</v>
       </c>
       <c r="C177" t="str">
-        <f>RIGHT(A177,4)</f>
+        <f t="shared" si="2"/>
         <v>4869</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D177" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3427,11 +3967,14 @@
         <v>0.74</v>
       </c>
       <c r="C178" t="str">
-        <f>RIGHT(A178,4)</f>
+        <f t="shared" si="2"/>
         <v>4879</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D178" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3439,11 +3982,14 @@
         <v>0.72</v>
       </c>
       <c r="C179" t="str">
-        <f>RIGHT(A179,4)</f>
+        <f t="shared" si="2"/>
         <v>4890</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D179" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3451,11 +3997,14 @@
         <v>0.7</v>
       </c>
       <c r="C180" t="str">
-        <f>RIGHT(A180,4)</f>
+        <f t="shared" si="2"/>
         <v>4900</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D180" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3463,11 +4012,14 @@
         <v>0.68</v>
       </c>
       <c r="C181" t="str">
-        <f>RIGHT(A181,4)</f>
+        <f t="shared" si="2"/>
         <v>4911</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D181" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3475,11 +4027,14 @@
         <v>0.66</v>
       </c>
       <c r="C182" t="str">
-        <f>RIGHT(A182,4)</f>
+        <f t="shared" si="2"/>
         <v>4922</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D182" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3487,11 +4042,14 @@
         <v>0.64</v>
       </c>
       <c r="C183" t="str">
-        <f>RIGHT(A183,4)</f>
+        <f t="shared" si="2"/>
         <v>4932</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D183" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3499,11 +4057,14 @@
         <v>0.63</v>
       </c>
       <c r="C184" t="str">
-        <f>RIGHT(A184,4)</f>
+        <f t="shared" si="2"/>
         <v>4942</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D184" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3511,11 +4072,14 @@
         <v>0.61</v>
       </c>
       <c r="C185" t="str">
-        <f>RIGHT(A185,4)</f>
+        <f t="shared" si="2"/>
         <v>4954</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D185" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3523,11 +4087,14 @@
         <v>0.59</v>
       </c>
       <c r="C186" t="str">
-        <f>RIGHT(A186,4)</f>
+        <f t="shared" si="2"/>
         <v>4964</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D186" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3535,11 +4102,14 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C187" t="str">
-        <f>RIGHT(A187,4)</f>
+        <f t="shared" si="2"/>
         <v>4974</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D187" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3547,11 +4117,14 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C188" t="str">
-        <f>RIGHT(A188,4)</f>
+        <f t="shared" si="2"/>
         <v>4985</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D188" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3559,11 +4132,14 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C189" t="str">
-        <f>RIGHT(A189,4)</f>
+        <f t="shared" si="2"/>
         <v>4996</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D189" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3571,11 +4147,14 @@
         <v>0.53</v>
       </c>
       <c r="C190" t="str">
-        <f>RIGHT(A190,4)</f>
+        <f t="shared" si="2"/>
         <v>5007</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D190" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3583,11 +4162,14 @@
         <v>0.52</v>
       </c>
       <c r="C191" t="str">
-        <f>RIGHT(A191,4)</f>
+        <f t="shared" si="2"/>
         <v>5017</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D191" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3595,11 +4177,14 @@
         <v>0.51</v>
       </c>
       <c r="C192" t="str">
-        <f>RIGHT(A192,4)</f>
+        <f t="shared" si="2"/>
         <v>5027</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D192" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3607,11 +4192,14 @@
         <v>0.49</v>
       </c>
       <c r="C193" t="str">
-        <f>RIGHT(A193,4)</f>
+        <f t="shared" si="2"/>
         <v>5039</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D193" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3619,11 +4207,14 @@
         <v>0.48</v>
       </c>
       <c r="C194" t="str">
-        <f>RIGHT(A194,4)</f>
+        <f t="shared" ref="C194:C257" si="3">RIGHT(A194,4)</f>
         <v>5049</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D194" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3631,11 +4222,14 @@
         <v>0.47</v>
       </c>
       <c r="C195" t="str">
-        <f>RIGHT(A195,4)</f>
+        <f t="shared" si="3"/>
         <v>5059</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D195" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3643,11 +4237,14 @@
         <v>0.45</v>
       </c>
       <c r="C196" t="str">
-        <f>RIGHT(A196,4)</f>
+        <f t="shared" si="3"/>
         <v>5070</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D196" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3655,11 +4252,14 @@
         <v>0.44</v>
       </c>
       <c r="C197" t="str">
-        <f>RIGHT(A197,4)</f>
+        <f t="shared" si="3"/>
         <v>5081</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D197" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3667,11 +4267,14 @@
         <v>0.43</v>
       </c>
       <c r="C198" t="str">
-        <f>RIGHT(A198,4)</f>
+        <f t="shared" si="3"/>
         <v>5091</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D198" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3679,11 +4282,14 @@
         <v>0.43</v>
       </c>
       <c r="C199" t="str">
-        <f>RIGHT(A199,4)</f>
+        <f t="shared" si="3"/>
         <v>5102</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D199" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3691,11 +4297,14 @@
         <v>0.41</v>
       </c>
       <c r="C200" t="str">
-        <f>RIGHT(A200,4)</f>
+        <f t="shared" si="3"/>
         <v>5112</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D200" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3703,11 +4312,14 @@
         <v>0.4</v>
       </c>
       <c r="C201" t="str">
-        <f>RIGHT(A201,4)</f>
+        <f t="shared" si="3"/>
         <v>5124</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D201" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3715,11 +4327,14 @@
         <v>0.39</v>
       </c>
       <c r="C202" t="str">
-        <f>RIGHT(A202,4)</f>
+        <f t="shared" si="3"/>
         <v>5134</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D202" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3727,11 +4342,14 @@
         <v>0.38</v>
       </c>
       <c r="C203" t="str">
-        <f>RIGHT(A203,4)</f>
+        <f t="shared" si="3"/>
         <v>5144</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D203" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3739,11 +4357,14 @@
         <v>0.37</v>
       </c>
       <c r="C204" t="str">
-        <f>RIGHT(A204,4)</f>
+        <f t="shared" si="3"/>
         <v>5155</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D204" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3751,11 +4372,14 @@
         <v>0.36</v>
       </c>
       <c r="C205" t="str">
-        <f>RIGHT(A205,4)</f>
+        <f t="shared" si="3"/>
         <v>5166</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D205" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3763,11 +4387,14 @@
         <v>0.35</v>
       </c>
       <c r="C206" t="str">
-        <f>RIGHT(A206,4)</f>
+        <f t="shared" si="3"/>
         <v>5176</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D206" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3775,11 +4402,14 @@
         <v>0.34</v>
       </c>
       <c r="C207" t="str">
-        <f>RIGHT(A207,4)</f>
+        <f t="shared" si="3"/>
         <v>5187</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D207" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3787,11 +4417,14 @@
         <v>0.34</v>
       </c>
       <c r="C208" t="str">
-        <f>RIGHT(A208,4)</f>
+        <f t="shared" si="3"/>
         <v>5197</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D208" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3799,11 +4432,14 @@
         <v>0.33</v>
       </c>
       <c r="C209" t="str">
-        <f>RIGHT(A209,4)</f>
+        <f t="shared" si="3"/>
         <v>5209</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D209" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3811,11 +4447,14 @@
         <v>0.32</v>
       </c>
       <c r="C210" t="str">
-        <f>RIGHT(A210,4)</f>
+        <f t="shared" si="3"/>
         <v>5219</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D210" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3823,11 +4462,14 @@
         <v>0.31</v>
       </c>
       <c r="C211" t="str">
-        <f>RIGHT(A211,4)</f>
+        <f t="shared" si="3"/>
         <v>5229</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D211" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3835,11 +4477,14 @@
         <v>0.3</v>
       </c>
       <c r="C212" t="str">
-        <f>RIGHT(A212,4)</f>
+        <f t="shared" si="3"/>
         <v>5240</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D212" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3847,11 +4492,14 @@
         <v>0.3</v>
       </c>
       <c r="C213" t="str">
-        <f>RIGHT(A213,4)</f>
+        <f t="shared" si="3"/>
         <v>5251</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D213" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3859,11 +4507,14 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C214" t="str">
-        <f>RIGHT(A214,4)</f>
+        <f t="shared" si="3"/>
         <v>5261</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D214" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -3871,11 +4522,14 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C215" t="str">
-        <f>RIGHT(A215,4)</f>
+        <f t="shared" si="3"/>
         <v>5272</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D215" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -3883,11 +4537,14 @@
         <v>0.27</v>
       </c>
       <c r="C216" t="str">
-        <f>RIGHT(A216,4)</f>
+        <f t="shared" si="3"/>
         <v>5282</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D216" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -3895,11 +4552,14 @@
         <v>0.27</v>
       </c>
       <c r="C217" t="str">
-        <f>RIGHT(A217,4)</f>
+        <f t="shared" si="3"/>
         <v>5293</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D217" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3907,11 +4567,14 @@
         <v>0.26</v>
       </c>
       <c r="C218" t="str">
-        <f>RIGHT(A218,4)</f>
+        <f t="shared" si="3"/>
         <v>5304</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D218" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -3919,11 +4582,14 @@
         <v>0.25</v>
       </c>
       <c r="C219" t="str">
-        <f>RIGHT(A219,4)</f>
+        <f t="shared" si="3"/>
         <v>5314</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D219" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -3931,11 +4597,14 @@
         <v>0.25</v>
       </c>
       <c r="C220" t="str">
-        <f>RIGHT(A220,4)</f>
+        <f t="shared" si="3"/>
         <v>5325</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D220" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -3943,11 +4612,14 @@
         <v>0.24</v>
       </c>
       <c r="C221" t="str">
-        <f>RIGHT(A221,4)</f>
+        <f t="shared" si="3"/>
         <v>5336</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D221" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -3955,11 +4627,14 @@
         <v>0.23</v>
       </c>
       <c r="C222" t="str">
-        <f>RIGHT(A222,4)</f>
+        <f t="shared" si="3"/>
         <v>5346</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D222" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -3967,11 +4642,14 @@
         <v>0.23</v>
       </c>
       <c r="C223" t="str">
-        <f>RIGHT(A223,4)</f>
+        <f t="shared" si="3"/>
         <v>5357</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D223" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -3979,11 +4657,14 @@
         <v>0.22</v>
       </c>
       <c r="C224" t="str">
-        <f>RIGHT(A224,4)</f>
+        <f t="shared" si="3"/>
         <v>5367</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D224" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -3991,11 +4672,14 @@
         <v>0.22</v>
       </c>
       <c r="C225" t="str">
-        <f>RIGHT(A225,4)</f>
+        <f t="shared" si="3"/>
         <v>5378</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D225" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -4003,11 +4687,14 @@
         <v>0.22</v>
       </c>
       <c r="C226" t="str">
-        <f>RIGHT(A226,4)</f>
+        <f t="shared" si="3"/>
         <v>5389</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D226" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -4015,11 +4702,14 @@
         <v>0.21</v>
       </c>
       <c r="C227" t="str">
-        <f>RIGHT(A227,4)</f>
+        <f t="shared" si="3"/>
         <v>5399</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D227" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4027,11 +4717,14 @@
         <v>0.2</v>
       </c>
       <c r="C228" t="str">
-        <f>RIGHT(A228,4)</f>
+        <f t="shared" si="3"/>
         <v>5409</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D228" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -4039,11 +4732,14 @@
         <v>0.2</v>
       </c>
       <c r="C229" t="str">
-        <f>RIGHT(A229,4)</f>
+        <f t="shared" si="3"/>
         <v>5421</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D229" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -4051,11 +4747,14 @@
         <v>0.19</v>
       </c>
       <c r="C230" t="str">
-        <f>RIGHT(A230,4)</f>
+        <f t="shared" si="3"/>
         <v>5431</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D230" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -4063,11 +4762,14 @@
         <v>0.19</v>
       </c>
       <c r="C231" t="str">
-        <f>RIGHT(A231,4)</f>
+        <f t="shared" si="3"/>
         <v>5442</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D231" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -4075,11 +4777,14 @@
         <v>0.18</v>
       </c>
       <c r="C232" t="str">
-        <f>RIGHT(A232,4)</f>
+        <f t="shared" si="3"/>
         <v>5452</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D232" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -4087,11 +4792,14 @@
         <v>0.18</v>
       </c>
       <c r="C233" t="str">
-        <f>RIGHT(A233,4)</f>
+        <f t="shared" si="3"/>
         <v>5463</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D233" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -4099,11 +4807,14 @@
         <v>0.18</v>
       </c>
       <c r="C234" t="str">
-        <f>RIGHT(A234,4)</f>
+        <f t="shared" si="3"/>
         <v>5474</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D234" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -4111,11 +4822,14 @@
         <v>0.17</v>
       </c>
       <c r="C235" t="str">
-        <f>RIGHT(A235,4)</f>
+        <f t="shared" si="3"/>
         <v>5484</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D235" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -4123,11 +4837,14 @@
         <v>0.17</v>
       </c>
       <c r="C236" t="str">
-        <f>RIGHT(A236,4)</f>
+        <f t="shared" si="3"/>
         <v>5494</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D236" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4135,11 +4852,14 @@
         <v>0.16</v>
       </c>
       <c r="C237" t="str">
-        <f>RIGHT(A237,4)</f>
+        <f t="shared" si="3"/>
         <v>5506</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D237" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4147,11 +4867,14 @@
         <v>0.16</v>
       </c>
       <c r="C238" t="str">
-        <f>RIGHT(A238,4)</f>
+        <f t="shared" si="3"/>
         <v>5516</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D238" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -4159,11 +4882,14 @@
         <v>0.15</v>
       </c>
       <c r="C239" t="str">
-        <f>RIGHT(A239,4)</f>
+        <f t="shared" si="3"/>
         <v>5527</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D239" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4171,11 +4897,14 @@
         <v>0.15</v>
       </c>
       <c r="C240" t="str">
-        <f>RIGHT(A240,4)</f>
+        <f t="shared" si="3"/>
         <v>5537</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D240" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4183,11 +4912,14 @@
         <v>0.15</v>
       </c>
       <c r="C241" t="str">
-        <f>RIGHT(A241,4)</f>
+        <f t="shared" si="3"/>
         <v>5548</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D241" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4195,11 +4927,14 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C242" t="str">
-        <f>RIGHT(A242,4)</f>
+        <f t="shared" si="3"/>
         <v>5559</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D242" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4207,11 +4942,14 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C243" t="str">
-        <f>RIGHT(A243,4)</f>
+        <f t="shared" si="3"/>
         <v>5569</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D243" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4219,11 +4957,14 @@
         <v>0.13</v>
       </c>
       <c r="C244" t="str">
-        <f>RIGHT(A244,4)</f>
+        <f t="shared" si="3"/>
         <v>5579</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D244" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4231,11 +4972,14 @@
         <v>0.13</v>
       </c>
       <c r="C245" t="str">
-        <f>RIGHT(A245,4)</f>
+        <f t="shared" si="3"/>
         <v>5591</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D245" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4243,11 +4987,14 @@
         <v>0.13</v>
       </c>
       <c r="C246" t="str">
-        <f>RIGHT(A246,4)</f>
+        <f t="shared" si="3"/>
         <v>5601</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D246" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4255,11 +5002,14 @@
         <v>0.12</v>
       </c>
       <c r="C247" t="str">
-        <f>RIGHT(A247,4)</f>
+        <f t="shared" si="3"/>
         <v>5611</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D247" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4267,11 +5017,14 @@
         <v>0.12</v>
       </c>
       <c r="C248" t="str">
-        <f>RIGHT(A248,4)</f>
+        <f t="shared" si="3"/>
         <v>5622</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D248" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4279,11 +5032,14 @@
         <v>0.12</v>
       </c>
       <c r="C249" t="str">
-        <f>RIGHT(A249,4)</f>
+        <f t="shared" si="3"/>
         <v>5633</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D249" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4291,11 +5047,14 @@
         <v>0.11</v>
       </c>
       <c r="C250" t="str">
-        <f>RIGHT(A250,4)</f>
+        <f t="shared" si="3"/>
         <v>5644</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D250" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4303,11 +5062,14 @@
         <v>0.11</v>
       </c>
       <c r="C251" t="str">
-        <f>RIGHT(A251,4)</f>
+        <f t="shared" si="3"/>
         <v>5654</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D251" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4315,11 +5077,14 @@
         <v>0.11</v>
       </c>
       <c r="C252" t="str">
-        <f>RIGHT(A252,4)</f>
+        <f t="shared" si="3"/>
         <v>5664</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D252" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4327,11 +5092,14 @@
         <v>0.1</v>
       </c>
       <c r="C253" t="str">
-        <f>RIGHT(A253,4)</f>
+        <f t="shared" si="3"/>
         <v>5676</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D253" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4339,11 +5107,14 @@
         <v>0.1</v>
       </c>
       <c r="C254" t="str">
-        <f>RIGHT(A254,4)</f>
+        <f t="shared" si="3"/>
         <v>5686</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D254" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4351,11 +5122,14 @@
         <v>0.1</v>
       </c>
       <c r="C255" t="str">
-        <f>RIGHT(A255,4)</f>
+        <f t="shared" si="3"/>
         <v>5696</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D255" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4363,11 +5137,14 @@
         <v>0.1</v>
       </c>
       <c r="C256" t="str">
-        <f>RIGHT(A256,4)</f>
+        <f t="shared" si="3"/>
         <v>5707</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D256" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4375,11 +5152,14 @@
         <v>0.09</v>
       </c>
       <c r="C257" t="str">
-        <f>RIGHT(A257,4)</f>
+        <f t="shared" si="3"/>
         <v>5718</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D257" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4387,11 +5167,14 @@
         <v>0.09</v>
       </c>
       <c r="C258" t="str">
-        <f>RIGHT(A258,4)</f>
+        <f t="shared" ref="C258:C300" si="4">RIGHT(A258,4)</f>
         <v>5728</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D258" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4399,11 +5182,14 @@
         <v>0.09</v>
       </c>
       <c r="C259" t="str">
-        <f>RIGHT(A259,4)</f>
+        <f t="shared" si="4"/>
         <v>5739</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D259" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4411,11 +5197,14 @@
         <v>0.09</v>
       </c>
       <c r="C260" t="str">
-        <f>RIGHT(A260,4)</f>
+        <f t="shared" si="4"/>
         <v>5749</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D260" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4423,11 +5212,14 @@
         <v>0.08</v>
       </c>
       <c r="C261" t="str">
-        <f>RIGHT(A261,4)</f>
+        <f t="shared" si="4"/>
         <v>5761</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D261" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4435,11 +5227,14 @@
         <v>0.08</v>
       </c>
       <c r="C262" t="str">
-        <f>RIGHT(A262,4)</f>
+        <f t="shared" si="4"/>
         <v>5771</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D262" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4447,11 +5242,14 @@
         <v>0.08</v>
       </c>
       <c r="C263" t="str">
-        <f>RIGHT(A263,4)</f>
+        <f t="shared" si="4"/>
         <v>5781</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D263" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4459,11 +5257,14 @@
         <v>0.08</v>
       </c>
       <c r="C264" t="str">
-        <f>RIGHT(A264,4)</f>
+        <f t="shared" si="4"/>
         <v>5792</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D264" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4471,11 +5272,14 @@
         <v>0.08</v>
       </c>
       <c r="C265" t="str">
-        <f>RIGHT(A265,4)</f>
+        <f t="shared" si="4"/>
         <v>5803</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D265" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4483,11 +5287,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C266" t="str">
-        <f>RIGHT(A266,4)</f>
+        <f t="shared" si="4"/>
         <v>5813</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D266" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -4495,11 +5302,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C267" t="str">
-        <f>RIGHT(A267,4)</f>
+        <f t="shared" si="4"/>
         <v>5824</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D267" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -4507,11 +5317,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C268" t="str">
-        <f>RIGHT(A268,4)</f>
+        <f t="shared" si="4"/>
         <v>5834</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D268" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -4519,11 +5332,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C269" t="str">
-        <f>RIGHT(A269,4)</f>
+        <f t="shared" si="4"/>
         <v>5844</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D269" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -4531,11 +5347,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C270" t="str">
-        <f>RIGHT(A270,4)</f>
+        <f t="shared" si="4"/>
         <v>5856</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D270" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4543,11 +5362,14 @@
         <v>0.06</v>
       </c>
       <c r="C271" t="str">
-        <f>RIGHT(A271,4)</f>
+        <f t="shared" si="4"/>
         <v>5866</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D271" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4555,11 +5377,14 @@
         <v>0.06</v>
       </c>
       <c r="C272" t="str">
-        <f>RIGHT(A272,4)</f>
+        <f t="shared" si="4"/>
         <v>5877</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D272" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4567,11 +5392,14 @@
         <v>0.06</v>
       </c>
       <c r="C273" t="str">
-        <f>RIGHT(A273,4)</f>
+        <f t="shared" si="4"/>
         <v>5888</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D273" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4579,11 +5407,14 @@
         <v>0.06</v>
       </c>
       <c r="C274" t="str">
-        <f>RIGHT(A274,4)</f>
+        <f t="shared" si="4"/>
         <v>5898</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D274" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4591,11 +5422,14 @@
         <v>0.06</v>
       </c>
       <c r="C275" t="str">
-        <f>RIGHT(A275,4)</f>
+        <f t="shared" si="4"/>
         <v>5909</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D275" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4603,11 +5437,14 @@
         <v>0.06</v>
       </c>
       <c r="C276" t="str">
-        <f>RIGHT(A276,4)</f>
+        <f t="shared" si="4"/>
         <v>5919</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D276" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4615,11 +5452,14 @@
         <v>0.05</v>
       </c>
       <c r="C277" t="str">
-        <f>RIGHT(A277,4)</f>
+        <f t="shared" si="4"/>
         <v>5929</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D277" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4627,11 +5467,14 @@
         <v>0.05</v>
       </c>
       <c r="C278" t="str">
-        <f>RIGHT(A278,4)</f>
+        <f t="shared" si="4"/>
         <v>5941</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D278" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4639,11 +5482,14 @@
         <v>0.05</v>
       </c>
       <c r="C279" t="str">
-        <f>RIGHT(A279,4)</f>
+        <f t="shared" si="4"/>
         <v>5951</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D279" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4651,11 +5497,14 @@
         <v>0.05</v>
       </c>
       <c r="C280" t="str">
-        <f>RIGHT(A280,4)</f>
+        <f t="shared" si="4"/>
         <v>5961</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D280" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4663,11 +5512,14 @@
         <v>0.05</v>
       </c>
       <c r="C281" t="str">
-        <f>RIGHT(A281,4)</f>
+        <f t="shared" si="4"/>
         <v>5972</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D281" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4675,11 +5527,14 @@
         <v>0.05</v>
       </c>
       <c r="C282" t="str">
-        <f>RIGHT(A282,4)</f>
+        <f t="shared" si="4"/>
         <v>5983</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D282" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -4687,11 +5542,14 @@
         <v>0.04</v>
       </c>
       <c r="C283" t="str">
-        <f>RIGHT(A283,4)</f>
+        <f t="shared" si="4"/>
         <v>5993</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D283" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -4699,11 +5557,14 @@
         <v>0.04</v>
       </c>
       <c r="C284" t="str">
-        <f>RIGHT(A284,4)</f>
+        <f t="shared" si="4"/>
         <v>6004</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D284" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -4711,11 +5572,14 @@
         <v>0.04</v>
       </c>
       <c r="C285" t="str">
-        <f>RIGHT(A285,4)</f>
+        <f t="shared" si="4"/>
         <v>6014</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D285" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -4723,11 +5587,14 @@
         <v>0.04</v>
       </c>
       <c r="C286" t="str">
-        <f>RIGHT(A286,4)</f>
+        <f t="shared" si="4"/>
         <v>6026</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D286" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -4735,11 +5602,14 @@
         <v>0.04</v>
       </c>
       <c r="C287" t="str">
-        <f>RIGHT(A287,4)</f>
+        <f t="shared" si="4"/>
         <v>6036</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D287" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -4747,11 +5617,14 @@
         <v>0.04</v>
       </c>
       <c r="C288" t="str">
-        <f>RIGHT(A288,4)</f>
+        <f t="shared" si="4"/>
         <v>6046</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D288" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -4759,11 +5632,14 @@
         <v>0.04</v>
       </c>
       <c r="C289" t="str">
-        <f>RIGHT(A289,4)</f>
+        <f t="shared" si="4"/>
         <v>6057</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D289" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -4771,11 +5647,14 @@
         <v>0.03</v>
       </c>
       <c r="C290" t="str">
-        <f>RIGHT(A290,4)</f>
+        <f t="shared" si="4"/>
         <v>6068</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D290" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4783,11 +5662,14 @@
         <v>0.04</v>
       </c>
       <c r="C291" t="str">
-        <f>RIGHT(A291,4)</f>
+        <f t="shared" si="4"/>
         <v>6078</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D291" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -4795,11 +5677,14 @@
         <v>0.03</v>
       </c>
       <c r="C292" t="str">
-        <f>RIGHT(A292,4)</f>
+        <f t="shared" si="4"/>
         <v>6089</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D292" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -4807,11 +5692,14 @@
         <v>0.03</v>
       </c>
       <c r="C293" t="str">
-        <f>RIGHT(A293,4)</f>
+        <f t="shared" si="4"/>
         <v>6099</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D293" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -4819,11 +5707,14 @@
         <v>0.03</v>
       </c>
       <c r="C294" t="str">
-        <f>RIGHT(A294,4)</f>
+        <f t="shared" si="4"/>
         <v>6110</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D294" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -4831,11 +5722,14 @@
         <v>0.03</v>
       </c>
       <c r="C295" t="str">
-        <f>RIGHT(A295,4)</f>
+        <f t="shared" si="4"/>
         <v>6121</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D295" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -4843,11 +5737,14 @@
         <v>0.03</v>
       </c>
       <c r="C296" t="str">
-        <f>RIGHT(A296,4)</f>
+        <f t="shared" si="4"/>
         <v>6131</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D296" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -4855,11 +5752,14 @@
         <v>0.03</v>
       </c>
       <c r="C297" t="str">
-        <f>RIGHT(A297,4)</f>
+        <f t="shared" si="4"/>
         <v>6142</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D297" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -4867,11 +5767,14 @@
         <v>0.03</v>
       </c>
       <c r="C298" t="str">
-        <f>RIGHT(A298,4)</f>
+        <f t="shared" si="4"/>
         <v>6153</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D298" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -4879,11 +5782,14 @@
         <v>0.03</v>
       </c>
       <c r="C299" t="str">
-        <f>RIGHT(A299,4)</f>
+        <f t="shared" si="4"/>
         <v>6163</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="D299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.8">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -4891,8 +5797,11 @@
         <v>0.03</v>
       </c>
       <c r="C300" t="str">
-        <f>RIGHT(A300,4)</f>
+        <f t="shared" si="4"/>
         <v>6174</v>
+      </c>
+      <c r="D300" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
